--- a/Excell/zhr_vh.xlsx
+++ b/Excell/zhr_vh.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697DE2C1-D0CD-4368-95C8-25BCFE52098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B664220-8E91-4AC5-8B15-E990BABFFFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1095" windowWidth="25440" windowHeight="15390" tabRatio="624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="624" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>ППС "Плавск"</t>
   </si>
@@ -489,6 +489,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,20 +513,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -530,12 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:AS14"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BB26" sqref="BB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,78 +895,78 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AL7" s="2" t="s">
@@ -974,11 +974,11 @@
       </c>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AP7" s="11" t="s">
+      <c r="AP7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AL8" s="2"/>
@@ -991,346 +991,346 @@
       </c>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
-      <c r="AP9" s="11" t="s">
+      <c r="AP9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="12"/>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
     </row>
     <row r="15" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
     </row>
     <row r="28" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AH28" s="2"/>
@@ -1408,234 +1408,234 @@
       <c r="AS34" s="6"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="14" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14" t="s">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14" t="s">
+      <c r="O35" s="9"/>
+      <c r="P35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14" t="s">
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="13" t="s">
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13" t="s">
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="14" t="s">
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AM35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
-      <c r="AQ35" s="14"/>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="14"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
     </row>
     <row r="36" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="14"/>
-      <c r="AO36" s="14"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="14"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="14"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="9"/>
+      <c r="AQ36" s="9"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="14" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
-      <c r="AI37" s="14" t="s">
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AJ37" s="14"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="14"/>
-      <c r="AM37" s="14"/>
-      <c r="AN37" s="14"/>
-      <c r="AO37" s="14"/>
-      <c r="AP37" s="14"/>
-      <c r="AQ37" s="14"/>
-      <c r="AR37" s="14"/>
-      <c r="AS37" s="14"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="9"/>
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
     </row>
     <row r="38" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
-      <c r="AM38" s="14"/>
-      <c r="AN38" s="14"/>
-      <c r="AO38" s="14"/>
-      <c r="AP38" s="14"/>
-      <c r="AQ38" s="14"/>
-      <c r="AR38" s="14"/>
-      <c r="AS38" s="14"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9"/>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A15:AS15"/>
+    <mergeCell ref="A16:AS17"/>
+    <mergeCell ref="AC3:AR6"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="A11:AS14"/>
+    <mergeCell ref="X35:AE38"/>
+    <mergeCell ref="AF35:AK36"/>
+    <mergeCell ref="AL35:AS38"/>
+    <mergeCell ref="AF37:AH38"/>
+    <mergeCell ref="AI37:AK38"/>
     <mergeCell ref="C35:H38"/>
     <mergeCell ref="A35:B38"/>
     <mergeCell ref="R35:W38"/>
     <mergeCell ref="N35:O38"/>
     <mergeCell ref="P35:Q38"/>
     <mergeCell ref="I35:M38"/>
-    <mergeCell ref="X35:AE38"/>
-    <mergeCell ref="AF35:AK36"/>
-    <mergeCell ref="AL35:AS38"/>
-    <mergeCell ref="AF37:AH38"/>
-    <mergeCell ref="AI37:AK38"/>
-    <mergeCell ref="A15:AS15"/>
-    <mergeCell ref="A16:AS17"/>
-    <mergeCell ref="AC3:AR6"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="A11:AS14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1646,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4:AE4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,318 +1658,282 @@
     <row r="1" spans="1:45" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="16"/>
       <c r="O1" s="17"/>
       <c r="P1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="Q1" s="17"/>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="22" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="17"/>
       <c r="AI1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="21"/>
+      <c r="AJ1" s="23"/>
       <c r="AK1" s="17"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
     </row>
     <row r="2" spans="1:45" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="16"/>
       <c r="O2" s="17"/>
       <c r="P2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="17"/>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="23" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="20"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="22"/>
       <c r="AI2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="21"/>
+      <c r="AJ2" s="23"/>
       <c r="AK2" s="17"/>
-      <c r="AL2" s="22" t="s">
+      <c r="AL2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
     </row>
     <row r="3" spans="1:45" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="16"/>
       <c r="O3" s="17"/>
       <c r="P3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="17"/>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="22" t="s">
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="20"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
       <c r="AI3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="21"/>
+      <c r="AJ3" s="23"/>
       <c r="AK3" s="17"/>
-      <c r="AL3" s="22" t="s">
+      <c r="AL3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
     </row>
     <row r="4" spans="1:45" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="16"/>
       <c r="O4" s="17"/>
       <c r="P4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="17"/>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="22" t="s">
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="20"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="22"/>
       <c r="AI4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="21"/>
+      <c r="AJ4" s="23"/>
       <c r="AK4" s="17"/>
-      <c r="AL4" s="22" t="s">
+      <c r="AL4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
     </row>
     <row r="5" spans="1:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="16"/>
       <c r="O5" s="17"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="X3:AE3"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="X4:AE4"/>
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="X1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AL2:AS2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AL3:AS3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AL4:AS4"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="X5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AS5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="C1:H1"/>
@@ -1982,6 +1946,44 @@
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AL4:AS4"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="X5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AS5"/>
+    <mergeCell ref="AL3:AS3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AL2:AS2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="X1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="X3:AE3"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X4:AE4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2004,272 +2006,306 @@
     <row r="1" spans="1:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
       <c r="N1" s="16"/>
       <c r="O1" s="17"/>
       <c r="P1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="Q1" s="17"/>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="22" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="22" t="s">
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
     </row>
     <row r="2" spans="1:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="16"/>
       <c r="O2" s="17"/>
       <c r="P2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="17"/>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="22" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="22" t="s">
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
     </row>
     <row r="3" spans="1:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="16"/>
       <c r="O3" s="17"/>
       <c r="P3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="Q3" s="17"/>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="22" t="s">
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="22" t="s">
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
     </row>
     <row r="4" spans="1:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="16"/>
       <c r="O4" s="17"/>
       <c r="P4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="Q4" s="17"/>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="22" t="s">
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="22" t="s">
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
     </row>
     <row r="5" spans="1:45" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="16"/>
       <c r="O5" s="17"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="X3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AL3:AS3"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="X5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AS5"/>
+    <mergeCell ref="X4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AL4:AS4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="X2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AS2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:W3"/>
     <mergeCell ref="X1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
@@ -2286,40 +2322,6 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:W1"/>
-    <mergeCell ref="X2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AS2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="X3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AL3:AS3"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="X5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AS5"/>
-    <mergeCell ref="X4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AL4:AS4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
